--- a/data/BaCandBLUE_Bioassay/RAW_swd_vs_inoculated_blueberryjuice.xlsx
+++ b/data/BaCandBLUE_Bioassay/RAW_swd_vs_inoculated_blueberryjuice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jbrown\Documents\GitHub\BACandBlue\data\BaCandBLUE_Bioassay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D5D40B-CF6D-41EB-9927-40E82BC61C3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCC1DCF-268D-46D8-A63B-9EA8BC3015D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B5F55B93-247F-4FDB-92D9-950E5CD3C7A6}"/>
+    <workbookView xWindow="38055" yWindow="180" windowWidth="19425" windowHeight="15000" activeTab="2" xr2:uid="{B5F55B93-247F-4FDB-92D9-950E5CD3C7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW_20190806" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="41">
   <si>
     <t>Total of 20 flies/trap</t>
   </si>
@@ -77,19 +77,10 @@
     <t>start_date</t>
   </si>
   <si>
-    <t>flies_in_treat</t>
-  </si>
-  <si>
-    <t>flies_in_control</t>
-  </si>
-  <si>
     <t>flies_outside</t>
   </si>
   <si>
     <t>total_flies</t>
-  </si>
-  <si>
-    <t>microbe</t>
   </si>
   <si>
     <t>Arena #</t>
@@ -116,49 +107,55 @@
     <t>48 Hour</t>
   </si>
   <si>
-    <t>start_time</t>
-  </si>
-  <si>
     <t>arena</t>
   </si>
   <si>
     <t>LB10BBJ</t>
   </si>
   <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>fly_addition_post_inoculation</t>
-  </si>
-  <si>
-    <t>starved</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>trap1_media</t>
   </si>
   <si>
-    <t>blank</t>
+    <t>trap2_media</t>
   </si>
   <si>
-    <t>LB10BBJ+LB10BBJ</t>
+    <t>trap1_microbe</t>
   </si>
   <si>
-    <t>LB10BBJ+LB</t>
+    <t>trap2_microbe</t>
   </si>
   <si>
-    <t>trap_media</t>
+    <t>LB</t>
   </si>
   <si>
-    <t>BLANK  + LB10BBJ+LB10BBJ = 2 CONTROL TRAPS</t>
+    <t>trap1_catch</t>
   </si>
   <si>
-    <t>BLANK  + LB10BBJ+LB = 1 CONTROL TRAP AND 1 LB-ONLY TRAP (LB-ONLY OBSERVATION RECORDED IN "flies_in_treat" COLUMN)</t>
+    <t>trap2_catch</t>
   </si>
   <si>
-    <t>CXXXX + LB10BBJ = 1 MICROBE TREATMENT TRAP AND 1 CONTROL TRAP IN ARENA</t>
+    <t>legs_up</t>
+  </si>
+  <si>
+    <t>inoculation_time</t>
+  </si>
+  <si>
+    <t>infusion_start</t>
+  </si>
+  <si>
+    <t>infusion_end</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>C621</t>
+  </si>
+  <si>
+    <t>starve_time</t>
   </si>
 </sst>
 </file>
@@ -182,18 +179,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -208,13 +199,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,7 +1192,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>20190816</v>
@@ -1217,16 +1205,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,7 +1359,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <f>AVERAGE(B4:B13)</f>
@@ -1388,7 +1376,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>20190823</v>
@@ -1401,16 +1389,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,7 +1543,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <f>AVERAGE(B19:B28)</f>
@@ -1572,7 +1560,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>20190830</v>
@@ -1585,16 +1573,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
         <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,7 +1727,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <f>AVERAGE(B34:B43)</f>
@@ -1761,80 +1749,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4094DDE7-56BC-4A59-9891-0372A130560F}">
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -1842,36 +1841,25 @@
       <c r="C2">
         <v>20190719</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
         <v>6</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1879,36 +1867,25 @@
       <c r="C3">
         <v>20190719</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
         <v>13</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -1916,36 +1893,25 @@
       <c r="C4">
         <v>20190719</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -1953,25 +1919,25 @@
       <c r="C5">
         <v>20190719</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>12</v>
       </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -1979,25 +1945,25 @@
       <c r="C6">
         <v>20190719</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="J6">
-        <v>9</v>
-      </c>
-      <c r="K6">
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
         <v>5</v>
       </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -2005,25 +1971,25 @@
       <c r="C7">
         <v>20190719</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>15</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -2031,25 +1997,25 @@
       <c r="C8">
         <v>20190719</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
         <v>6</v>
       </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -2057,25 +2023,25 @@
       <c r="C9">
         <v>20190719</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -2083,25 +2049,25 @@
       <c r="C10">
         <v>20190719</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
       <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -2109,25 +2075,25 @@
       <c r="C11">
         <v>20190719</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -2135,25 +2101,25 @@
       <c r="C12">
         <v>20190719</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
         <v>13</v>
       </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -2161,25 +2127,25 @@
       <c r="C13">
         <v>20190719</v>
       </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13">
         <v>16</v>
       </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -2187,25 +2153,25 @@
       <c r="C14">
         <v>20190719</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>6</v>
       </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -2213,25 +2179,25 @@
       <c r="C15">
         <v>20190719</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -2239,25 +2205,25 @@
       <c r="C16">
         <v>20190719</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
       <c r="L16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -2265,25 +2231,25 @@
       <c r="C17">
         <v>20190719</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>6</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -2291,25 +2257,25 @@
       <c r="C18">
         <v>20190719</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -2317,25 +2283,25 @@
       <c r="C19">
         <v>20190719</v>
       </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
       <c r="L19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -2343,25 +2309,25 @@
       <c r="C20">
         <v>20190729</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20">
         <v>5</v>
       </c>
-      <c r="K20">
-        <v>10</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2369,25 +2335,25 @@
       <c r="C21">
         <v>20190729</v>
       </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21">
-        <v>7</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2395,25 +2361,25 @@
       <c r="C22">
         <v>20190729</v>
       </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22">
         <v>8</v>
       </c>
-      <c r="K22">
-        <v>4</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -2421,25 +2387,25 @@
       <c r="C23">
         <v>20190729</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>8</v>
       </c>
-      <c r="K23">
-        <v>9</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -2447,25 +2413,25 @@
       <c r="C24">
         <v>20190729</v>
       </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="J24">
-        <v>10</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
       <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -2473,25 +2439,25 @@
       <c r="C25">
         <v>20190729</v>
       </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>13</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>6</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -2499,25 +2465,25 @@
       <c r="C26">
         <v>20190729</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26">
-        <v>9</v>
-      </c>
-      <c r="K26">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
         <v>8</v>
       </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -2525,25 +2491,25 @@
       <c r="C27">
         <v>20190729</v>
       </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27">
         <v>12</v>
       </c>
-      <c r="K27">
-        <v>4</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>20</v>
@@ -2551,25 +2517,25 @@
       <c r="C28">
         <v>20190729</v>
       </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="H28" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28">
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28">
         <v>15</v>
       </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>20</v>
@@ -2577,25 +2543,25 @@
       <c r="C29">
         <v>20190729</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29">
         <v>13</v>
       </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29">
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>20</v>
@@ -2603,25 +2569,25 @@
       <c r="C30">
         <v>20190729</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30">
         <v>16</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>0</v>
       </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2629,25 +2595,25 @@
       <c r="C31">
         <v>20190729</v>
       </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="H31" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="K31">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
         <v>8</v>
       </c>
-      <c r="L31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>20</v>
@@ -2655,25 +2621,25 @@
       <c r="C32">
         <v>20190729</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>12</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>5</v>
       </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -2681,25 +2647,25 @@
       <c r="C33">
         <v>20190729</v>
       </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
         <v>11</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>13</v>
       </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>20</v>
@@ -2707,25 +2673,25 @@
       <c r="C34">
         <v>20190729</v>
       </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>6</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>11</v>
       </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>20</v>
@@ -2733,25 +2699,25 @@
       <c r="C35">
         <v>20190729</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>12</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>8</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>20</v>
@@ -2759,25 +2725,25 @@
       <c r="C36">
         <v>20190729</v>
       </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="J36">
-        <v>10</v>
-      </c>
-      <c r="K36">
+      <c r="L36">
+        <v>10</v>
+      </c>
+      <c r="M36">
         <v>5</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>20</v>
@@ -2785,25 +2751,25 @@
       <c r="C37">
         <v>20190729</v>
       </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>12</v>
       </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>20</v>
@@ -2811,25 +2777,25 @@
       <c r="C38">
         <v>20190802</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38">
-        <v>7</v>
-      </c>
-      <c r="K38">
-        <v>10</v>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
       </c>
       <c r="L38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>10</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -2837,25 +2803,25 @@
       <c r="C39">
         <v>20190802</v>
       </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="H39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39">
-        <v>3</v>
-      </c>
-      <c r="K39">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
         <v>12</v>
       </c>
-      <c r="L39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>20</v>
@@ -2863,25 +2829,25 @@
       <c r="C40">
         <v>20190802</v>
       </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="H40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40">
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40">
         <v>0</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>17</v>
       </c>
-      <c r="L40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>20</v>
@@ -2889,25 +2855,25 @@
       <c r="C41">
         <v>20190802</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
         <v>8</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>16</v>
       </c>
-      <c r="K41">
-        <v>4</v>
-      </c>
-      <c r="L41">
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B42">
         <v>20</v>
@@ -2915,25 +2881,25 @@
       <c r="C42">
         <v>20190802</v>
       </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
         <v>8</v>
       </c>
-      <c r="J42">
-        <v>10</v>
-      </c>
-      <c r="K42">
-        <v>10</v>
-      </c>
       <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B43">
         <v>20</v>
@@ -2941,25 +2907,25 @@
       <c r="C43">
         <v>20190802</v>
       </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
         <v>8</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>5</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>14</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B44">
         <v>20</v>
@@ -2967,25 +2933,25 @@
       <c r="C44">
         <v>20190802</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44">
-        <v>7</v>
-      </c>
-      <c r="K44">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="M44">
         <v>5</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B45">
         <v>20</v>
@@ -2993,25 +2959,25 @@
       <c r="C45">
         <v>20190802</v>
       </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45">
         <v>6</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>8</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B46">
         <v>20</v>
@@ -3019,25 +2985,25 @@
       <c r="C46">
         <v>20190802</v>
       </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="H46" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46">
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46">
         <v>18</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>20</v>
@@ -3045,25 +3011,25 @@
       <c r="C47">
         <v>20190802</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47">
-        <v>10</v>
-      </c>
-      <c r="K47">
-        <v>3</v>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
       </c>
       <c r="L47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B48">
         <v>20</v>
@@ -3071,25 +3037,25 @@
       <c r="C48">
         <v>20190802</v>
       </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="H48" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48">
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48">
         <v>14</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>5</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>20</v>
@@ -3097,25 +3063,25 @@
       <c r="C49">
         <v>20190802</v>
       </c>
-      <c r="F49">
-        <v>3</v>
-      </c>
-      <c r="H49" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49">
-        <v>7</v>
-      </c>
-      <c r="K49">
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="L49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <v>10</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>20</v>
@@ -3123,25 +3089,25 @@
       <c r="C50">
         <v>20190802</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>15</v>
       </c>
-      <c r="K50">
-        <v>4</v>
-      </c>
-      <c r="L50">
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>20</v>
@@ -3149,25 +3115,25 @@
       <c r="C51">
         <v>20190802</v>
       </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
         <v>11</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>13</v>
       </c>
-      <c r="K51">
-        <v>7</v>
-      </c>
-      <c r="L51">
+      <c r="M51">
+        <v>7</v>
+      </c>
+      <c r="N51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>20</v>
@@ -3175,25 +3141,25 @@
       <c r="C52">
         <v>20190802</v>
       </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
         <v>11</v>
       </c>
-      <c r="J52">
-        <v>7</v>
-      </c>
-      <c r="K52">
+      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="M52">
         <v>8</v>
       </c>
-      <c r="L52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>20</v>
@@ -3201,25 +3167,25 @@
       <c r="C53">
         <v>20190802</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
         <v>12</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>17</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>20</v>
@@ -3227,25 +3193,25 @@
       <c r="C54">
         <v>20190802</v>
       </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>13</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>8</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>20</v>
@@ -3253,1503 +3219,2349 @@
       <c r="C55">
         <v>20190802</v>
       </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
         <v>12</v>
       </c>
-      <c r="J55">
-        <v>10</v>
-      </c>
-      <c r="K55">
+      <c r="L55">
+        <v>10</v>
+      </c>
+      <c r="M55">
         <v>8</v>
       </c>
-      <c r="L55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>40</v>
       </c>
       <c r="C56">
         <v>20190816</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J56">
+        <v>25</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="L56">
         <v>22</v>
       </c>
-      <c r="K56">
-        <v>10</v>
-      </c>
-      <c r="L56">
+      <c r="M56">
+        <v>10</v>
+      </c>
+      <c r="N56">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>40</v>
       </c>
       <c r="C57">
         <v>20190816</v>
       </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J57">
+        <v>25</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="L57">
         <v>27</v>
       </c>
-      <c r="K57">
-        <v>3</v>
-      </c>
-      <c r="L57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>40</v>
       </c>
       <c r="C58">
         <v>20190816</v>
       </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-      <c r="G58">
-        <v>2</v>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J58">
+        <v>25</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="L58">
         <v>12</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>15</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>34</v>
-      </c>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>40</v>
       </c>
       <c r="C59">
         <v>20190816</v>
       </c>
-      <c r="F59">
-        <v>4</v>
-      </c>
-      <c r="G59">
-        <v>2</v>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="L59">
         <v>29</v>
       </c>
-      <c r="J59">
-        <v>29</v>
-      </c>
-      <c r="K59">
+      <c r="M59">
         <v>0</v>
       </c>
-      <c r="L59">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
+      <c r="N59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>40</v>
       </c>
       <c r="C60">
         <v>20190816</v>
       </c>
-      <c r="F60">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="G60">
-        <v>2</v>
+      <c r="E60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J60">
+        <v>25</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="L60">
         <v>14</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>15</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>34</v>
-      </c>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>40</v>
       </c>
       <c r="C61">
         <v>20190816</v>
       </c>
-      <c r="F61">
+      <c r="D61">
         <v>6</v>
       </c>
-      <c r="G61">
-        <v>2</v>
+      <c r="E61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61">
-        <v>20</v>
-      </c>
-      <c r="K61">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
       </c>
       <c r="L61">
+        <v>20</v>
+      </c>
+      <c r="M61">
+        <v>9</v>
+      </c>
+      <c r="N61">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>34</v>
-      </c>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>40</v>
       </c>
       <c r="C62">
         <v>20190816</v>
       </c>
-      <c r="F62">
-        <v>7</v>
-      </c>
-      <c r="G62">
-        <v>2</v>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62">
+        <v>25</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="L62">
         <v>15</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>13</v>
       </c>
-      <c r="L62">
+      <c r="N62">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>34</v>
-      </c>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>40</v>
       </c>
       <c r="C63">
         <v>20190816</v>
       </c>
-      <c r="F63">
+      <c r="D63">
         <v>8</v>
       </c>
-      <c r="G63">
-        <v>2</v>
+      <c r="E63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J63">
+        <v>25</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="L63">
         <v>15</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>16</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>34</v>
-      </c>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>40</v>
       </c>
       <c r="C64">
         <v>20190816</v>
       </c>
-      <c r="F64">
-        <v>9</v>
-      </c>
-      <c r="G64">
-        <v>2</v>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64">
+        <v>25</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="L64">
         <v>18</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>16</v>
       </c>
-      <c r="L64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>34</v>
-      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>40</v>
       </c>
       <c r="C65">
         <v>20190816</v>
       </c>
-      <c r="F65">
-        <v>10</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J65">
+        <v>25</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="L65">
         <v>19</v>
       </c>
-      <c r="K65">
-        <v>10</v>
-      </c>
-      <c r="L65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>34</v>
-      </c>
+      <c r="M65">
+        <v>10</v>
+      </c>
+      <c r="N65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>40</v>
       </c>
       <c r="C66">
         <v>20190823</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66">
         <v>24</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66">
+      <c r="L66">
         <v>24</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>8</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>34</v>
-      </c>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>40</v>
       </c>
       <c r="C67">
         <v>20190823</v>
       </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-      <c r="G67">
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67">
         <v>24</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67">
-        <v>10</v>
-      </c>
-      <c r="K67">
+      <c r="L67">
+        <v>10</v>
+      </c>
+      <c r="M67">
         <v>18</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>34</v>
-      </c>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>40</v>
       </c>
       <c r="C68">
         <v>20190823</v>
       </c>
-      <c r="F68">
-        <v>3</v>
-      </c>
-      <c r="G68">
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68">
         <v>24</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68">
+      <c r="L68">
         <v>27</v>
       </c>
-      <c r="K68">
-        <v>7</v>
-      </c>
-      <c r="L68">
+      <c r="M68">
+        <v>7</v>
+      </c>
+      <c r="N68">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>34</v>
-      </c>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>40</v>
       </c>
       <c r="C69">
         <v>20190823</v>
       </c>
-      <c r="F69">
-        <v>4</v>
-      </c>
-      <c r="G69">
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69">
         <v>24</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69">
+      <c r="L69">
         <v>11</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>17</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>34</v>
-      </c>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>40</v>
       </c>
       <c r="C70">
         <v>20190823</v>
       </c>
-      <c r="F70">
+      <c r="D70">
         <v>5</v>
       </c>
-      <c r="G70">
+      <c r="E70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70">
         <v>24</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70">
-        <v>25</v>
-      </c>
-      <c r="K70">
-        <v>7</v>
-      </c>
       <c r="L70">
+        <v>25</v>
+      </c>
+      <c r="M70">
+        <v>7</v>
+      </c>
+      <c r="N70">
         <v>5</v>
       </c>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>34</v>
-      </c>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>40</v>
       </c>
       <c r="C71">
         <v>20190823</v>
       </c>
-      <c r="F71">
+      <c r="D71">
         <v>6</v>
       </c>
-      <c r="G71">
+      <c r="E71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71">
         <v>24</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J71">
+      <c r="L71">
         <v>24</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>11</v>
       </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>34</v>
-      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>40</v>
       </c>
       <c r="C72">
         <v>20190823</v>
       </c>
-      <c r="F72">
-        <v>7</v>
-      </c>
-      <c r="G72">
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72">
         <v>24</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72">
+      <c r="L72">
         <v>19</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>18</v>
       </c>
-      <c r="L72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>34</v>
-      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>40</v>
       </c>
       <c r="C73">
         <v>20190823</v>
       </c>
-      <c r="F73">
+      <c r="D73">
         <v>8</v>
       </c>
-      <c r="G73">
+      <c r="E73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73">
         <v>24</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73">
+      <c r="L73">
         <v>24</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>5</v>
       </c>
-      <c r="L73">
+      <c r="N73">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>34</v>
-      </c>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>40</v>
       </c>
       <c r="C74">
         <v>20190823</v>
       </c>
-      <c r="F74">
-        <v>9</v>
-      </c>
-      <c r="G74">
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74">
         <v>24</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J74">
-        <v>10</v>
-      </c>
-      <c r="K74">
+      <c r="L74">
+        <v>10</v>
+      </c>
+      <c r="M74">
         <v>8</v>
       </c>
-      <c r="L74">
+      <c r="N74">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>34</v>
-      </c>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>40</v>
       </c>
       <c r="C75">
         <v>20190823</v>
       </c>
-      <c r="F75">
-        <v>10</v>
-      </c>
-      <c r="G75">
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75">
         <v>24</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75">
-        <v>7</v>
-      </c>
-      <c r="K75">
-        <v>9</v>
-      </c>
       <c r="L75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>34</v>
-      </c>
+      <c r="M75">
+        <v>9</v>
+      </c>
+      <c r="N75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>40</v>
       </c>
       <c r="C76">
         <v>20190830</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76">
         <v>48</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J76">
+      <c r="L76">
         <v>5</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>19</v>
       </c>
-      <c r="L76">
+      <c r="N76">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>34</v>
-      </c>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>40</v>
       </c>
       <c r="C77">
         <v>20190830</v>
       </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-      <c r="G77">
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77">
         <v>48</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J77">
+      <c r="L77">
         <v>12</v>
       </c>
-      <c r="K77">
-        <v>10</v>
-      </c>
-      <c r="L77">
+      <c r="M77">
+        <v>10</v>
+      </c>
+      <c r="N77">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>34</v>
-      </c>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>40</v>
       </c>
       <c r="C78">
         <v>20190830</v>
       </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-      <c r="G78">
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78">
         <v>48</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J78">
+      <c r="L78">
         <v>17</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>11</v>
       </c>
-      <c r="L78">
+      <c r="N78">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>34</v>
-      </c>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>40</v>
       </c>
       <c r="C79">
         <v>20190830</v>
       </c>
-      <c r="F79">
-        <v>4</v>
-      </c>
-      <c r="G79">
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79">
         <v>48</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79">
+      <c r="L79">
         <v>17</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>19</v>
       </c>
-      <c r="L79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>34</v>
-      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>40</v>
       </c>
       <c r="C80">
         <v>20190830</v>
       </c>
-      <c r="F80">
+      <c r="D80">
         <v>5</v>
       </c>
-      <c r="G80">
+      <c r="E80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80">
         <v>48</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J80">
+      <c r="L80">
         <v>19</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>21</v>
       </c>
-      <c r="L80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>34</v>
-      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>40</v>
       </c>
       <c r="C81">
         <v>20190830</v>
       </c>
-      <c r="F81">
+      <c r="D81">
         <v>6</v>
       </c>
-      <c r="G81">
+      <c r="E81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81">
         <v>48</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81" s="2" t="s">
+      <c r="L81">
         <v>29</v>
       </c>
-      <c r="J81">
-        <v>29</v>
-      </c>
-      <c r="K81">
+      <c r="M81">
         <v>6</v>
       </c>
-      <c r="L81">
+      <c r="N81">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>34</v>
-      </c>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>40</v>
       </c>
       <c r="C82">
         <v>20190830</v>
       </c>
-      <c r="F82">
-        <v>7</v>
-      </c>
-      <c r="G82">
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82">
         <v>48</v>
       </c>
-      <c r="H82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J82">
+      <c r="L82">
         <v>15</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>5</v>
       </c>
-      <c r="L82">
+      <c r="N82">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>34</v>
-      </c>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>40</v>
       </c>
       <c r="C83">
         <v>20190830</v>
       </c>
-      <c r="F83">
+      <c r="D83">
         <v>8</v>
       </c>
-      <c r="G83">
+      <c r="E83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83">
         <v>48</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J83">
+      <c r="L83">
         <v>19</v>
       </c>
-      <c r="K83">
-        <v>7</v>
-      </c>
-      <c r="L83">
+      <c r="M83">
+        <v>7</v>
+      </c>
+      <c r="N83">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>34</v>
-      </c>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>40</v>
       </c>
       <c r="C84">
         <v>20190830</v>
       </c>
-      <c r="F84">
-        <v>9</v>
-      </c>
-      <c r="G84">
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84">
         <v>48</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J84">
+      <c r="L84">
         <v>27</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>0</v>
       </c>
-      <c r="L84">
+      <c r="N84">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>34</v>
-      </c>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>40</v>
       </c>
       <c r="C85">
         <v>20190830</v>
       </c>
-      <c r="F85">
-        <v>10</v>
-      </c>
-      <c r="G85">
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85">
         <v>48</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J85">
-        <v>25</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
       <c r="L85">
+        <v>25</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>34</v>
-      </c>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>40</v>
       </c>
       <c r="C86">
         <v>20190906</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86" t="s">
-        <v>7</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J86">
-        <v>10</v>
-      </c>
-      <c r="K86">
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>10</v>
+      </c>
+      <c r="M86">
         <v>11</v>
       </c>
-      <c r="L86">
+      <c r="N86">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>34</v>
-      </c>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>40</v>
       </c>
       <c r="C87">
         <v>20190906</v>
       </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
-      <c r="G87">
-        <v>2</v>
-      </c>
-      <c r="H87" t="s">
-        <v>7</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
         <v>16</v>
       </c>
-      <c r="L87">
+      <c r="N87">
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>34</v>
-      </c>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>40</v>
       </c>
       <c r="C88">
         <v>20190906</v>
       </c>
-      <c r="F88">
-        <v>3</v>
-      </c>
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88" t="s">
-        <v>7</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J88">
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="L88">
         <v>15</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>19</v>
       </c>
-      <c r="L88">
+      <c r="N88">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>34</v>
-      </c>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>40</v>
       </c>
       <c r="C89">
         <v>20190906</v>
       </c>
-      <c r="F89">
-        <v>4</v>
-      </c>
-      <c r="G89">
-        <v>2</v>
-      </c>
-      <c r="H89" t="s">
-        <v>7</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J89">
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="L89">
         <v>21</v>
       </c>
-      <c r="K89">
-        <v>4</v>
-      </c>
-      <c r="L89">
+      <c r="M89">
+        <v>4</v>
+      </c>
+      <c r="N89">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>34</v>
-      </c>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>40</v>
       </c>
       <c r="C90">
         <v>20190906</v>
       </c>
-      <c r="F90">
+      <c r="D90">
         <v>5</v>
       </c>
-      <c r="G90">
-        <v>2</v>
-      </c>
-      <c r="H90" t="s">
-        <v>7</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J90">
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="L90">
         <v>15</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>13</v>
       </c>
-      <c r="L90">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>34</v>
-      </c>
+      <c r="N90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>40</v>
       </c>
       <c r="C91">
         <v>20190906</v>
       </c>
-      <c r="F91">
+      <c r="D91">
         <v>6</v>
       </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-      <c r="H91" t="s">
-        <v>7</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J91">
-        <v>20</v>
-      </c>
-      <c r="K91">
-        <v>3</v>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
       </c>
       <c r="L91">
+        <v>20</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>34</v>
-      </c>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>40</v>
       </c>
       <c r="C92">
         <v>20190906</v>
       </c>
-      <c r="F92">
-        <v>7</v>
-      </c>
-      <c r="G92">
-        <v>2</v>
-      </c>
-      <c r="H92" t="s">
-        <v>7</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J92">
+      <c r="D92">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="L92">
         <v>14</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>16</v>
       </c>
-      <c r="L92">
+      <c r="N92">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>34</v>
-      </c>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>40</v>
       </c>
       <c r="C93">
         <v>20190906</v>
       </c>
-      <c r="F93">
+      <c r="D93">
         <v>8</v>
       </c>
-      <c r="G93">
-        <v>2</v>
-      </c>
-      <c r="H93" t="s">
-        <v>7</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J93">
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="L93">
         <v>17</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>11</v>
       </c>
-      <c r="L93">
+      <c r="N93">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>34</v>
-      </c>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>40</v>
       </c>
       <c r="C94">
         <v>20190906</v>
       </c>
-      <c r="F94">
-        <v>9</v>
-      </c>
-      <c r="G94">
-        <v>2</v>
-      </c>
-      <c r="H94" t="s">
-        <v>7</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J94">
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="L94">
         <v>18</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>11</v>
       </c>
-      <c r="L94">
+      <c r="N94">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>34</v>
-      </c>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>40</v>
       </c>
       <c r="C95">
         <v>20190906</v>
       </c>
-      <c r="F95">
-        <v>10</v>
-      </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
-      <c r="H95" t="s">
-        <v>7</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J95">
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="L95">
         <v>17</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>16</v>
       </c>
-      <c r="L95">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>34</v>
-      </c>
+      <c r="N95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>40</v>
       </c>
       <c r="C96">
         <v>20190906</v>
       </c>
-      <c r="F96">
+      <c r="D96">
         <v>11</v>
       </c>
-      <c r="G96">
-        <v>2</v>
-      </c>
-      <c r="H96" t="s">
-        <v>35</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K96">
-        <v>23</v>
+      <c r="E96" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
       </c>
       <c r="L96">
+        <v>12</v>
+      </c>
+      <c r="M96">
+        <v>11</v>
+      </c>
+      <c r="N96">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>34</v>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>40</v>
       </c>
       <c r="C97">
         <v>20190809</v>
       </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97" t="s">
-        <v>35</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K97">
-        <v>18</v>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L97">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>14</v>
+      </c>
+      <c r="N97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>40</v>
       </c>
       <c r="C98">
         <v>20190809</v>
       </c>
-      <c r="F98">
-        <v>2</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98" t="s">
-        <v>35</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K98">
-        <v>17</v>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L98">
+        <v>11</v>
+      </c>
+      <c r="M98">
+        <v>6</v>
+      </c>
+      <c r="N98">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>34</v>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>40</v>
       </c>
       <c r="C99">
         <v>20190809</v>
       </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99" t="s">
-        <v>35</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K99">
-        <v>17</v>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L99">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="M99">
+        <v>9</v>
+      </c>
+      <c r="N99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>40</v>
       </c>
       <c r="C100">
         <v>20190809</v>
       </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100" t="s">
-        <v>35</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J100">
-        <v>3</v>
-      </c>
-      <c r="K100">
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
         <v>6</v>
       </c>
-      <c r="L100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>34</v>
+      <c r="N100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>40</v>
       </c>
       <c r="C101">
         <v>20190809</v>
       </c>
-      <c r="F101">
-        <v>2</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>35</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J101">
-        <v>5</v>
-      </c>
-      <c r="K101">
-        <v>12</v>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="L101">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>34</v>
+      <c r="M101">
+        <v>12</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>40</v>
       </c>
       <c r="C102">
         <v>20190809</v>
       </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-      <c r="G102">
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>21</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>40</v>
+      </c>
+      <c r="C103">
+        <v>20190913</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>39</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103">
+        <v>24</v>
+      </c>
+      <c r="L103">
+        <v>10</v>
+      </c>
+      <c r="M103">
+        <v>10</v>
+      </c>
+      <c r="N103">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>40</v>
+      </c>
+      <c r="C104">
+        <v>20190913</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>39</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104">
+        <v>24</v>
+      </c>
+      <c r="L104">
+        <v>8</v>
+      </c>
+      <c r="M104">
+        <v>26</v>
+      </c>
+      <c r="N104">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>40</v>
+      </c>
+      <c r="C105">
+        <v>20190913</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105">
+        <v>24</v>
+      </c>
+      <c r="L105">
+        <v>10</v>
+      </c>
+      <c r="M105">
+        <v>12</v>
+      </c>
+      <c r="N105">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>40</v>
+      </c>
+      <c r="C106">
+        <v>20190913</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106">
+        <v>24</v>
+      </c>
+      <c r="L106">
+        <v>6</v>
+      </c>
+      <c r="M106">
+        <v>7</v>
+      </c>
+      <c r="N106">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>40</v>
+      </c>
+      <c r="C107">
+        <v>20190913</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>39</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107">
+        <v>24</v>
+      </c>
+      <c r="L107">
+        <v>12</v>
+      </c>
+      <c r="M107">
+        <v>13</v>
+      </c>
+      <c r="N107">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>40</v>
+      </c>
+      <c r="C108">
+        <v>20190913</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108">
+        <v>24</v>
+      </c>
+      <c r="L108">
+        <v>8</v>
+      </c>
+      <c r="M108">
+        <v>10</v>
+      </c>
+      <c r="N108">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>40</v>
+      </c>
+      <c r="C109">
+        <v>20190913</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I109">
+        <v>24</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>40</v>
+      </c>
+      <c r="C110">
+        <v>20190913</v>
+      </c>
+      <c r="D110">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110">
+        <v>24</v>
+      </c>
+      <c r="L110">
+        <v>8</v>
+      </c>
+      <c r="M110">
+        <v>6</v>
+      </c>
+      <c r="N110">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>40</v>
+      </c>
+      <c r="C111">
+        <v>20190920</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I111">
+        <v>48</v>
+      </c>
+      <c r="L111">
+        <v>19</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+      <c r="N111">
+        <v>12</v>
+      </c>
+      <c r="O111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>40</v>
+      </c>
+      <c r="C112">
+        <v>20190920</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I112">
+        <v>48</v>
+      </c>
+      <c r="L112">
+        <v>19</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>20</v>
+      </c>
+      <c r="O112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>40</v>
+      </c>
+      <c r="C113">
+        <v>20190920</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>39</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I113">
+        <v>48</v>
+      </c>
+      <c r="L113">
+        <v>11</v>
+      </c>
+      <c r="M113">
+        <v>11</v>
+      </c>
+      <c r="N113">
+        <v>18</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>40</v>
+      </c>
+      <c r="C114">
+        <v>20190920</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>39</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I114">
+        <v>48</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>35</v>
+      </c>
+      <c r="O114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>40</v>
+      </c>
+      <c r="C115">
+        <v>20190920</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>39</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I115">
+        <v>48</v>
+      </c>
+      <c r="L115">
+        <v>16</v>
+      </c>
+      <c r="M115">
+        <v>15</v>
+      </c>
+      <c r="N115">
+        <v>9</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>40</v>
+      </c>
+      <c r="C116">
+        <v>20190920</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116">
+        <v>48</v>
+      </c>
+      <c r="L116">
+        <v>13</v>
+      </c>
+      <c r="M116">
+        <v>8</v>
+      </c>
+      <c r="N116">
+        <v>17</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>40</v>
+      </c>
+      <c r="C117">
+        <v>20190920</v>
+      </c>
+      <c r="D117">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I117">
+        <v>48</v>
+      </c>
+      <c r="L117">
+        <v>16</v>
+      </c>
+      <c r="M117">
+        <v>8</v>
+      </c>
+      <c r="N117">
+        <v>18</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>40</v>
+      </c>
+      <c r="C118">
+        <v>20190920</v>
+      </c>
+      <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118">
+        <v>48</v>
+      </c>
+      <c r="L118">
+        <v>7</v>
+      </c>
+      <c r="M118">
+        <v>9</v>
+      </c>
+      <c r="N118">
+        <v>24</v>
+      </c>
+      <c r="O118">
         <v>0</v>
       </c>
-      <c r="H102" t="s">
-        <v>35</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102">
-        <v>21</v>
-      </c>
-      <c r="L102">
-        <v>2</v>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>40</v>
+      </c>
+      <c r="C119">
+        <v>20190920</v>
+      </c>
+      <c r="D119">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>39</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I119">
+        <v>48</v>
+      </c>
+      <c r="L119">
+        <v>5</v>
+      </c>
+      <c r="M119">
+        <v>8</v>
+      </c>
+      <c r="N119">
+        <v>27</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>40</v>
+      </c>
+      <c r="C120">
+        <v>20190920</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I120">
+        <v>48</v>
+      </c>
+      <c r="L120">
+        <v>13</v>
+      </c>
+      <c r="M120">
+        <v>10</v>
+      </c>
+      <c r="N120">
+        <v>7</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>40</v>
+      </c>
+      <c r="C121">
+        <v>20190920</v>
+      </c>
+      <c r="D121">
+        <v>11</v>
+      </c>
+      <c r="E121" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I121">
+        <v>48</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>8</v>
+      </c>
+      <c r="N121">
+        <v>28</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="M3:U3"/>
-    <mergeCell ref="M4:U4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
